--- a/Document/VPI综合测试系统缺陷跟踪表.xlsx
+++ b/Document/VPI综合测试系统缺陷跟踪表.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="问题跟踪表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">问题跟踪表!$A$2:$N$87</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="160">
   <si>
     <r>
       <t>2.</t>
@@ -2950,13 +2951,182 @@
   <si>
     <t>绿色效果不好,改为DarkGreen</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果未做测试预设，直接开始测试的话，提示“系统机笼机笼…”，多了个“机笼”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360会把exe文件杀掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合测试，没有选择测试项，测试预设就直接点出来了，不容易复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询的“测试序号，测试时间”等信息应该居中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自检心跳超时，无法开始自检，左侧的VIB16(1_7)颜色应该是黄色；自检测试的时间应该是5分钟，注意修改配置文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告中的SN应该改成“S/N号”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果弹出的对话框最小化后，看不到了（显示有问题），此时无法操作主界面，但是没有提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次点击显示桌面的快捷键，都会弹出一个“显示桌面”的记事本文件，此时无法显示桌面，应该是跟安装了补丁有关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件导出功能无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询时，SN的排序有问题，不是递增或者递减，1后面是10/11/12/13，然后才是2/3/4…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试时间为0的话，应该在测试预设点击“确定”的时候，就提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询，不要默认选择“近一月”；开始时间晚于结束时间，没有对话框提示；结束原因不应该默认“正常结束”，应该是全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳超时时间判定仍然为13s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下位机相关的修改，待验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCT和general的文件夹名称也应该相应修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次安装完，数据查询默认都会有之前你测试留下的报告信息，请清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑判定表列名称应该居中，空心圆也居中，空心圆是否可以换成实心黑色圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询时，report文件路径的‘斜杠’显示有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data文件夹下面的FCT和general应该删除掉，导出文件的时候，提示信息应该再写清楚些“要使用者自己新建文件夹”。建议还是在data目录下，建一个文件夹，规定放在里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPI系统名称应该是VPI3_FCT吗？
+把整个系统的名称应该定下来，安装路径名、exe、界面等都应该统一名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月26号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始测试之后，上位机收到握手消息开始正式测试的第一次，VCOM需要7S的时间才能起来，上位机设置了7s的宽恕，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPI3功能测试平台-刘志江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.板卡拔出会报“板卡拔出”错误，但是当板卡重新插入，会继续报错，没有恢复正常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.拔出VIB16板，应该报OCK、未驱动、测试字三种错误，目前是只报了“未驱动错误，周期都是0，输出状态为无输出（此时应该是测试字错误）”，并没有区分出驱动和不驱动两种情况；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.exe可执行文件，隔一段时间就无法打开了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4.VOB端口9故障，却一直在报1端口故障，而且信息也是“未驱动错误，周期都是0，输出状态为无输出”，而且错误次数是0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>6月29号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component\SingleBoard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下位机不支持热插拔，拔出板卡之后，需要重启上下位机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIB不区分这三种错误，VOB板卡测试出错才会区分这三种错误，具体请查看备注中VOB板卡测试规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3040,10 +3210,23 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Sans-serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3124,31 +3307,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3180,7 +3357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3233,55 +3410,85 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3290,34 +3497,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3332,6 +3518,52 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>84</xdr:row>
+          <xdr:rowOff>533400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Object 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3620,18 +3852,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M1" sqref="A1:M23"/>
+    <sheetView tabSelected="1" topLeftCell="C70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="13" style="15" customWidth="1"/>
-    <col min="3" max="3" width="68.875" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="80.375" style="15" customWidth="1"/>
     <col min="4" max="4" width="30" style="15" customWidth="1"/>
     <col min="5" max="6" width="19.625" style="15" customWidth="1"/>
     <col min="7" max="7" width="21.25" style="15" customWidth="1"/>
@@ -3639,12 +3871,12 @@
     <col min="9" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="16.5">
       <c r="A1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
     </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="36.75" customHeight="1">
       <c r="A2" s="17"/>
       <c r="B2" s="1" t="s">
         <v>60</v>
@@ -3669,15 +3901,15 @@
       <c r="M2" s="17"/>
       <c r="N2" s="16"/>
     </row>
-    <row r="3" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="21.75" customHeight="1">
       <c r="A3" s="17"/>
-      <c r="B3" s="35">
+      <c r="B3" s="45">
         <v>42167</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -3694,13 +3926,13 @@
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
     </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="25.5" customHeight="1">
       <c r="A4" s="17"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3717,13 +3949,13 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:14" ht="51" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="51">
       <c r="A5" s="17"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="45"/>
+      <c r="C5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="25" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -3740,12 +3972,12 @@
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
     </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="35"/>
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:14" ht="16.5">
+      <c r="B6" s="45"/>
+      <c r="C6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="24" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3762,12 +3994,12 @@
       </c>
       <c r="N6" s="17"/>
     </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B7" s="35"/>
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:14" ht="16.5">
+      <c r="B7" s="45"/>
+      <c r="C7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -3782,12 +4014,12 @@
       <c r="H7" s="13"/>
       <c r="N7" s="17"/>
     </row>
-    <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="B8" s="35"/>
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="1:14" ht="27">
+      <c r="B8" s="45"/>
+      <c r="C8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="4" t="s">
         <v>14</v>
       </c>
@@ -3802,12 +4034,12 @@
       </c>
       <c r="N8" s="17"/>
     </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="35"/>
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="1:14" ht="16.5">
+      <c r="B9" s="45"/>
+      <c r="C9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -3822,12 +4054,12 @@
       <c r="H9" s="13"/>
       <c r="N9" s="17"/>
     </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B10" s="35"/>
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:14" ht="16.5">
+      <c r="B10" s="45"/>
+      <c r="C10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3842,12 +4074,12 @@
       <c r="H10" s="13"/>
       <c r="N10" s="17"/>
     </row>
-    <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="B11" s="35"/>
-      <c r="C11" s="3" t="s">
+    <row r="11" spans="1:14" ht="27">
+      <c r="B11" s="45"/>
+      <c r="C11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="25" t="s">
         <v>72</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3864,12 +4096,12 @@
       </c>
       <c r="N11" s="17"/>
     </row>
-    <row r="12" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B12" s="35"/>
-      <c r="C12" s="3" t="s">
+    <row r="12" spans="1:14" ht="16.5">
+      <c r="B12" s="45"/>
+      <c r="C12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="25" t="s">
         <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -3886,12 +4118,12 @@
       </c>
       <c r="N12" s="17"/>
     </row>
-    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.15">
-      <c r="B13" s="35"/>
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="1:14" ht="27">
+      <c r="B13" s="45"/>
+      <c r="C13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="25" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="4" t="s">
@@ -3908,12 +4140,12 @@
       </c>
       <c r="N13" s="17"/>
     </row>
-    <row r="14" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B14" s="35"/>
-      <c r="C14" s="3" t="s">
+    <row r="14" spans="1:14" ht="16.5">
+      <c r="B14" s="45"/>
+      <c r="C14" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -3928,12 +4160,12 @@
       <c r="H14" s="13"/>
       <c r="N14" s="17"/>
     </row>
-    <row r="15" spans="1:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B15" s="35"/>
-      <c r="C15" s="3" t="s">
+    <row r="15" spans="1:14" ht="36" customHeight="1">
+      <c r="B15" s="45"/>
+      <c r="C15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="4" t="s">
         <v>14</v>
       </c>
@@ -3948,12 +4180,12 @@
       </c>
       <c r="N15" s="17"/>
     </row>
-    <row r="16" spans="1:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="35"/>
-      <c r="C16" s="3" t="s">
+    <row r="16" spans="1:14" ht="24.75" customHeight="1">
+      <c r="B16" s="45"/>
+      <c r="C16" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -3968,14 +4200,14 @@
       <c r="H16" s="13"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="36" t="s">
+    <row r="17" spans="2:14" ht="16.5">
+      <c r="B17" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3990,12 +4222,12 @@
       <c r="H17" s="13"/>
       <c r="N17" s="17"/>
     </row>
-    <row r="18" spans="2:14" ht="54" x14ac:dyDescent="0.15">
-      <c r="B18" s="36"/>
-      <c r="C18" s="3" t="s">
+    <row r="18" spans="2:14" ht="54">
+      <c r="B18" s="46"/>
+      <c r="C18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="24" t="s">
         <v>80</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -4012,19 +4244,21 @@
       </c>
       <c r="N18" s="17"/>
     </row>
-    <row r="19" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="36"/>
-      <c r="C19" s="3" t="s">
+    <row r="19" spans="2:14" ht="54.75" customHeight="1">
+      <c r="B19" s="46"/>
+      <c r="C19" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="22" t="s">
+      <c r="E19" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H19" s="13" t="s">
@@ -4032,12 +4266,12 @@
       </c>
       <c r="N19" s="17"/>
     </row>
-    <row r="20" spans="2:14" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B20" s="36"/>
-      <c r="C20" s="3" t="s">
+    <row r="20" spans="2:14" ht="40.5">
+      <c r="B20" s="46"/>
+      <c r="C20" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="5" t="s">
         <v>14</v>
       </c>
@@ -4052,12 +4286,12 @@
       </c>
       <c r="N20" s="17"/>
     </row>
-    <row r="21" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="36"/>
-      <c r="C21" s="3" t="s">
+    <row r="21" spans="2:14" ht="67.5">
+      <c r="B21" s="46"/>
+      <c r="C21" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="25" t="s">
         <v>85</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -4074,12 +4308,12 @@
       </c>
       <c r="N21" s="17"/>
     </row>
-    <row r="22" spans="2:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B22" s="36"/>
-      <c r="C22" s="3" t="s">
+    <row r="22" spans="2:14" ht="16.5">
+      <c r="B22" s="46"/>
+      <c r="C22" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -4094,12 +4328,12 @@
       <c r="H22" s="13"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B23" s="36"/>
-      <c r="C23" s="3" t="s">
+    <row r="23" spans="2:14" ht="16.5">
+      <c r="B23" s="46"/>
+      <c r="C23" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -4114,30 +4348,30 @@
       <c r="H23" s="13"/>
       <c r="N23" s="17"/>
     </row>
-    <row r="24" spans="2:14" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B24" s="36"/>
-      <c r="C24" s="3" t="s">
+    <row r="24" spans="2:14" ht="16.5">
+      <c r="B24" s="46"/>
+      <c r="C24" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="13"/>
       <c r="N24" s="17"/>
     </row>
-    <row r="25" spans="2:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="36"/>
-      <c r="C25" s="3" t="s">
+    <row r="25" spans="2:14" ht="35.25" customHeight="1">
+      <c r="B25" s="46"/>
+      <c r="C25" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -4152,12 +4386,12 @@
       <c r="H25" s="13"/>
       <c r="N25" s="17"/>
     </row>
-    <row r="26" spans="2:14" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="36"/>
-      <c r="C26" s="3" t="s">
+    <row r="26" spans="2:14" ht="36" customHeight="1">
+      <c r="B26" s="46"/>
+      <c r="C26" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -4172,19 +4406,21 @@
       <c r="H26" s="13"/>
       <c r="N26" s="17"/>
     </row>
-    <row r="27" spans="2:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="36"/>
-      <c r="C27" s="3" t="s">
+    <row r="27" spans="2:14" ht="47.25" customHeight="1">
+      <c r="B27" s="46"/>
+      <c r="C27" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="22" t="s">
+      <c r="E27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H27" s="13" t="s">
@@ -4192,34 +4428,32 @@
       </c>
       <c r="N27" s="17"/>
     </row>
-    <row r="28" spans="2:14" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="32" t="s">
+    <row r="28" spans="2:14" ht="60" customHeight="1">
+      <c r="B28" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>14</v>
+      <c r="D28" s="24"/>
+      <c r="E28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H28" s="9" t="s">
-        <v>90</v>
-      </c>
+      <c r="H28" s="13"/>
       <c r="N28" s="17"/>
     </row>
-    <row r="29" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="32"/>
-      <c r="C29" s="3" t="s">
+    <row r="29" spans="2:14" ht="37.5" customHeight="1">
+      <c r="B29" s="47"/>
+      <c r="C29" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="24" t="s">
         <v>91</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -4235,12 +4469,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="32"/>
-      <c r="C30" s="3" t="s">
+    <row r="30" spans="2:14" ht="57.75" customHeight="1">
+      <c r="B30" s="47"/>
+      <c r="C30" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="25" t="s">
         <v>93</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -4256,12 +4490,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="32"/>
-      <c r="C31" s="3" t="s">
+    <row r="31" spans="2:14" ht="47.25" customHeight="1">
+      <c r="B31" s="47"/>
+      <c r="C31" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="25" t="s">
         <v>95</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -4277,12 +4511,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="32"/>
-      <c r="C32" s="3" t="s">
+    <row r="32" spans="2:14" ht="45" customHeight="1">
+      <c r="B32" s="47"/>
+      <c r="C32" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="26" t="s">
         <v>97</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -4291,17 +4525,17 @@
       <c r="F32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="25" t="s">
+      <c r="G32" s="19" t="s">
         <v>98</v>
       </c>
       <c r="H32" s="13"/>
     </row>
-    <row r="33" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="32"/>
-      <c r="C33" s="3" t="s">
+    <row r="33" spans="2:8" ht="42" customHeight="1">
+      <c r="B33" s="47"/>
+      <c r="C33" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -4315,18 +4549,18 @@
       </c>
       <c r="H33" s="13"/>
     </row>
-    <row r="34" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="32"/>
-      <c r="C34" s="3" t="s">
+    <row r="34" spans="2:8" ht="43.5" customHeight="1">
+      <c r="B34" s="47"/>
+      <c r="C34" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="7" t="s">
+      <c r="E34" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="34" t="s">
         <v>14</v>
       </c>
       <c r="G34" s="8" t="s">
@@ -4336,14 +4570,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="33" t="s">
+    <row r="35" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B35" s="48" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="24" t="s">
         <v>67</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -4357,12 +4591,12 @@
       </c>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="33"/>
-      <c r="C36" s="3" t="s">
+    <row r="36" spans="2:8" ht="45" customHeight="1">
+      <c r="B36" s="48"/>
+      <c r="C36" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="25" t="s">
         <v>102</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -4376,12 +4610,12 @@
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="2:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="33"/>
-      <c r="C37" s="3" t="s">
+    <row r="37" spans="2:8" ht="38.25" customHeight="1">
+      <c r="B37" s="48"/>
+      <c r="C37" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="39" t="s">
+      <c r="D37" s="25" t="s">
         <v>103</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -4395,12 +4629,12 @@
       </c>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="2:8" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B38" s="33"/>
-      <c r="C38" s="3" t="s">
+    <row r="38" spans="2:8" ht="28.5">
+      <c r="B38" s="48"/>
+      <c r="C38" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="39" t="s">
+      <c r="D38" s="25" t="s">
         <v>104</v>
       </c>
       <c r="E38" s="5" t="s">
@@ -4414,14 +4648,14 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="33"/>
-      <c r="C39" s="26" t="s">
+    <row r="39" spans="2:8" ht="36.75" customHeight="1">
+      <c r="B39" s="48"/>
+      <c r="C39" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7" t="s">
+      <c r="D39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34" t="s">
         <v>14</v>
       </c>
       <c r="G39" s="8" t="s">
@@ -4429,12 +4663,12 @@
       </c>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="33"/>
+    <row r="40" spans="2:8" ht="29.25" customHeight="1">
+      <c r="B40" s="48"/>
       <c r="C40" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="23"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="7" t="s">
         <v>14</v>
       </c>
@@ -4444,12 +4678,12 @@
       </c>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="2:8" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="B41" s="33"/>
-      <c r="C41" s="3" t="s">
+    <row r="41" spans="2:8" ht="25.5">
+      <c r="B41" s="48"/>
+      <c r="C41" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="25" t="s">
         <v>105</v>
       </c>
       <c r="E41" s="5" t="s">
@@ -4463,12 +4697,12 @@
       </c>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="33"/>
-      <c r="C42" s="3" t="s">
+    <row r="42" spans="2:8" ht="67.5" customHeight="1">
+      <c r="B42" s="48"/>
+      <c r="C42" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="25" t="s">
         <v>106</v>
       </c>
       <c r="E42" s="5" t="s">
@@ -4484,16 +4718,16 @@
         <v>107</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B43" s="33"/>
-      <c r="C43" s="3" t="s">
+    <row r="43" spans="2:8" ht="14.25">
+      <c r="B43" s="48"/>
+      <c r="C43" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="D43" s="24"/>
+      <c r="E43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="8" t="s">
@@ -4501,18 +4735,18 @@
       </c>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="2:8" ht="27" x14ac:dyDescent="0.15">
-      <c r="B44" s="33"/>
-      <c r="C44" s="3" t="s">
+    <row r="44" spans="2:8" ht="27">
+      <c r="B44" s="48"/>
+      <c r="C44" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="E44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="7" t="s">
+      <c r="E44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G44" s="8" t="s">
@@ -4520,18 +4754,18 @@
       </c>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="33"/>
-      <c r="C45" s="26" t="s">
+    <row r="45" spans="2:8" ht="54.75" customHeight="1">
+      <c r="B45" s="48"/>
+      <c r="C45" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="E45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="7" t="s">
+      <c r="E45" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="34" t="s">
         <v>14</v>
       </c>
       <c r="G45" s="8" t="s">
@@ -4539,18 +4773,18 @@
       </c>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="2:8" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="33"/>
-      <c r="C46" s="26" t="s">
+    <row r="46" spans="2:8" ht="52.5" customHeight="1">
+      <c r="B46" s="48"/>
+      <c r="C46" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F46" s="7" t="s">
+      <c r="E46" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="34" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="8" t="s">
@@ -4560,50 +4794,50 @@
         <v>111</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="34" t="s">
+    <row r="47" spans="2:8" ht="45.75" customHeight="1">
+      <c r="B47" s="44" t="s">
         <v>112</v>
       </c>
       <c r="C47" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="E47" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>14</v>
+      <c r="E47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="29"/>
-    </row>
-    <row r="48" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="34"/>
-      <c r="C48" s="30" t="s">
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="2:8" ht="45" customHeight="1">
+      <c r="B48" s="44"/>
+      <c r="C48" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D48" s="29" t="s">
+      <c r="D48" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7" t="s">
+      <c r="E48" s="34"/>
+      <c r="F48" s="34" t="s">
         <v>14</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H48" s="29"/>
-    </row>
-    <row r="49" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="34"/>
-      <c r="C49" s="42" t="s">
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="2:8" ht="48.75" customHeight="1">
+      <c r="B49" s="44"/>
+      <c r="C49" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="30" t="s">
         <v>116</v>
       </c>
       <c r="E49" s="5" t="s">
@@ -4615,14 +4849,14 @@
       <c r="G49" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H49" s="29"/>
-    </row>
-    <row r="50" spans="2:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="34"/>
-      <c r="C50" s="27" t="s">
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="2:8" ht="46.5" customHeight="1">
+      <c r="B50" s="44"/>
+      <c r="C50" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="29"/>
+      <c r="D50" s="21"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
         <v>14</v>
@@ -4630,31 +4864,31 @@
       <c r="G50" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H50" s="29"/>
-    </row>
-    <row r="51" spans="2:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="34"/>
+      <c r="H50" s="21"/>
+    </row>
+    <row r="51" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B51" s="44"/>
       <c r="C51" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="44" t="s">
+      <c r="D51" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7" t="s">
+      <c r="E51" s="5"/>
+      <c r="F51" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H51" s="29"/>
-    </row>
-    <row r="52" spans="2:8" ht="54" x14ac:dyDescent="0.15">
-      <c r="B52" s="34"/>
-      <c r="C52" s="27" t="s">
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="2:8" ht="54">
+      <c r="B52" s="44"/>
+      <c r="C52" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D52" s="29" t="s">
+      <c r="D52" s="21" t="s">
         <v>116</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -4666,12 +4900,12 @@
       <c r="G52" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H52" s="31" t="s">
+      <c r="H52" s="22" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="53" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="34"/>
+    <row r="53" spans="2:8" ht="54" customHeight="1">
+      <c r="B53" s="44"/>
       <c r="C53" s="27" t="s">
         <v>50</v>
       </c>
@@ -4683,84 +4917,84 @@
         <v>13</v>
       </c>
       <c r="G53" s="7"/>
-      <c r="H53" s="29"/>
-    </row>
-    <row r="54" spans="2:8" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="34"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="2:8" ht="86.25" customHeight="1">
+      <c r="B54" s="44"/>
       <c r="C54" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="E54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H54" s="29"/>
-    </row>
-    <row r="55" spans="2:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="34"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="2:8" ht="51" customHeight="1">
+      <c r="B55" s="44"/>
       <c r="C55" s="27" t="s">
         <v>52</v>
       </c>
       <c r="D55" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7" t="s">
+      <c r="E55" s="5"/>
+      <c r="F55" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="29"/>
-    </row>
-    <row r="56" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B56" s="34"/>
+      <c r="H55" s="21"/>
+    </row>
+    <row r="56" spans="2:8" ht="48.75" customHeight="1">
+      <c r="B56" s="44"/>
       <c r="C56" s="27" t="s">
         <v>53</v>
       </c>
       <c r="D56" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7" t="s">
-        <v>14</v>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H56" s="29"/>
-    </row>
-    <row r="57" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B57" s="34"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="2:8" ht="36.75" customHeight="1">
+      <c r="B57" s="44"/>
       <c r="C57" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7" t="s">
+      <c r="E57" s="5"/>
+      <c r="F57" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H57" s="29"/>
-    </row>
-    <row r="58" spans="2:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="34"/>
+      <c r="H57" s="21"/>
+    </row>
+    <row r="58" spans="2:8" ht="41.25" customHeight="1">
+      <c r="B58" s="44"/>
       <c r="C58" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="45" t="s">
+      <c r="D58" s="29" t="s">
         <v>124</v>
       </c>
       <c r="E58" s="5" t="s">
@@ -4772,31 +5006,31 @@
       <c r="G58" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H58" s="29"/>
-    </row>
-    <row r="59" spans="2:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="34"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="2:8" ht="36.75" customHeight="1">
+      <c r="B59" s="44"/>
       <c r="C59" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7" t="s">
+      <c r="E59" s="5"/>
+      <c r="F59" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H59" s="29"/>
-    </row>
-    <row r="60" spans="2:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="34"/>
-      <c r="C60" s="27" t="s">
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="2:8" ht="42.75" customHeight="1">
+      <c r="B60" s="44"/>
+      <c r="C60" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D60" s="29"/>
+      <c r="D60" s="21"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
         <v>14</v>
@@ -4804,10 +5038,10 @@
       <c r="G60" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H60" s="29"/>
-    </row>
-    <row r="61" spans="2:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="34"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="2:8" ht="47.25" customHeight="1">
+      <c r="B61" s="44"/>
       <c r="C61" s="27" t="s">
         <v>58</v>
       </c>
@@ -4819,49 +5053,401 @@
         <v>13</v>
       </c>
       <c r="G61" s="7"/>
-      <c r="H61" s="29"/>
-    </row>
-    <row r="62" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="34"/>
-      <c r="C62" s="30" t="s">
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="2:8" ht="40.5" customHeight="1">
+      <c r="B62" s="44"/>
+      <c r="C62" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D62" s="29"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7" t="s">
+      <c r="D62" s="36"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H62" s="29"/>
-    </row>
-    <row r="63" spans="2:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="34"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" spans="2:8" ht="53.25" customHeight="1">
+      <c r="B63" s="44"/>
       <c r="C63" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="29" t="s">
         <v>127</v>
       </c>
       <c r="E63" s="29"/>
-      <c r="F63" s="7" t="s">
-        <v>14</v>
+      <c r="F63" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H63" s="29"/>
-    </row>
-    <row r="64" spans="2:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="60.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="60" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="41.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="31.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="43.5" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="H63" s="21"/>
+    </row>
+    <row r="64" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B64" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D64" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="2:8" ht="36.75" customHeight="1">
+      <c r="B65" s="42"/>
+      <c r="C65" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="21"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="21"/>
+    </row>
+    <row r="66" spans="2:8" ht="43.5" customHeight="1">
+      <c r="B66" s="42"/>
+      <c r="C66" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" s="21"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" spans="2:8" ht="47.25" customHeight="1">
+      <c r="B67" s="42"/>
+      <c r="C67" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D67" s="36"/>
+      <c r="E67" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="34"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="21"/>
+    </row>
+    <row r="68" spans="2:8" ht="43.5" customHeight="1">
+      <c r="B68" s="42"/>
+      <c r="C68" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="29"/>
+      <c r="E68" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="69" spans="2:8" ht="44.25" customHeight="1">
+      <c r="B69" s="42"/>
+      <c r="C69" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="29"/>
+      <c r="E69" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="21"/>
+    </row>
+    <row r="70" spans="2:8" ht="29.25" customHeight="1">
+      <c r="B70" s="42"/>
+      <c r="C70" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71" spans="2:8" ht="30" customHeight="1">
+      <c r="B71" s="42"/>
+      <c r="C71" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D71" s="29"/>
+      <c r="E71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="21"/>
+    </row>
+    <row r="72" spans="2:8" ht="36.75" customHeight="1">
+      <c r="B72" s="42"/>
+      <c r="C72" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="21"/>
+    </row>
+    <row r="73" spans="2:8" ht="43.5" customHeight="1">
+      <c r="B73" s="42"/>
+      <c r="C73" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="29"/>
+      <c r="E73" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="21"/>
+    </row>
+    <row r="74" spans="2:8" ht="39" customHeight="1">
+      <c r="B74" s="42"/>
+      <c r="C74" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D74" s="29"/>
+      <c r="E74" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="21"/>
+    </row>
+    <row r="75" spans="2:8" ht="36.75" customHeight="1">
+      <c r="B75" s="42"/>
+      <c r="C75" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D75" s="36"/>
+      <c r="E75" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75" s="34"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="2:8" ht="33.75" customHeight="1">
+      <c r="B76" s="42"/>
+      <c r="C76" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D76" s="29"/>
+      <c r="E76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="21"/>
+    </row>
+    <row r="77" spans="2:8" ht="34.5" customHeight="1">
+      <c r="B77" s="42"/>
+      <c r="C77" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="29"/>
+      <c r="E77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="7"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78" spans="2:8" ht="57.75" customHeight="1">
+      <c r="B78" s="42"/>
+      <c r="C78" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79" spans="2:8" ht="30" customHeight="1">
+      <c r="B79" s="42"/>
+      <c r="C79" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D79" s="36"/>
+      <c r="E79" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79" s="34"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="21"/>
+    </row>
+    <row r="80" spans="2:8" ht="30" customHeight="1">
+      <c r="B80" s="42"/>
+      <c r="C80" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="21"/>
+    </row>
+    <row r="81" spans="2:8" ht="39.75" customHeight="1">
+      <c r="B81" s="42"/>
+      <c r="C81" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" s="36"/>
+      <c r="E81" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81" s="34"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="21"/>
+    </row>
+    <row r="82" spans="2:8" ht="47.25" customHeight="1">
+      <c r="B82" s="42"/>
+      <c r="C82" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D82" s="29"/>
+      <c r="E82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="21"/>
+    </row>
+    <row r="83" spans="2:8" ht="51.75" customHeight="1">
+      <c r="B83" s="42"/>
+      <c r="C83" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="29"/>
+      <c r="E83" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84" spans="2:8" ht="41.25" customHeight="1">
+      <c r="B84" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C84" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E84" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+    </row>
+    <row r="85" spans="2:8" ht="51" customHeight="1">
+      <c r="B85" s="43"/>
+      <c r="C85" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+    </row>
+    <row r="86" spans="2:8" ht="33.75" customHeight="1">
+      <c r="B86" s="43"/>
+      <c r="C86" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" ht="57.75" customHeight="1">
+      <c r="B87" s="43"/>
+      <c r="C87" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="21"/>
+      <c r="H87" s="49"/>
+    </row>
+    <row r="88" spans="2:8" ht="43.5" customHeight="1"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="B64:B83"/>
+    <mergeCell ref="B84:B87"/>
     <mergeCell ref="B47:B63"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="B17:B27"/>
@@ -4870,37 +5456,40 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:G63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:G63 E64:G83 E84:G87">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="包装程序外壳对象" shapeId="1051" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>84</xdr:row>
+                <xdr:rowOff>533400</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="包装程序外壳对象" shapeId="1051" r:id="rId4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>